--- a/HLUN.xlsx
+++ b/HLUN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44CB3B-4763-4A09-B101-11E4CC4E1462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD2A04-A048-42A7-A615-DA11DAADE936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51615" yWindow="1095" windowWidth="20085" windowHeight="20160" xr2:uid="{7B7A1A5F-796C-4EC6-BFC3-52A4045C9438}"/>
+    <workbookView xWindow="-36945" yWindow="4020" windowWidth="22800" windowHeight="15345" xr2:uid="{7B7A1A5F-796C-4EC6-BFC3-52A4045C9438}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,7 +379,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -390,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -735,7 +734,7 @@
   <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -748,34 +747,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>48.68</v>
+        <v>40.15</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="15"/>
+      <c r="H3" s="7"/>
       <c r="J3" t="s">
         <v>0</v>
       </c>
@@ -790,30 +785,22 @@
       <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="C4" s="15"/>
+      <c r="H4" s="7"/>
       <c r="J4" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>48275.955999999998</v>
+        <v>39816.754999999997</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="15"/>
+      <c r="H5" s="7"/>
       <c r="J5" t="s">
         <v>5</v>
       </c>
@@ -828,14 +815,10 @@
       <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="J6" t="s">
         <v>6</v>
       </c>
@@ -847,23 +830,23 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>45756.955999999998</v>
+        <v>37297.754999999997</v>
       </c>
     </row>
   </sheetData>
